--- a/Cíntia/Casos de teste.xlsx
+++ b/Cíntia/Casos de teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cíntia Galvão\Desktop\Repositorio\Verificao-validacao\Cíntia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF81D253-AEC7-4DE7-A580-2F9B24BB204F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170A9D01-E2BE-4810-A66E-7F359698E9C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>Controle de execução de casos de teste</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Não executado</t>
-  </si>
-  <si>
-    <t>Defeito Crítico</t>
   </si>
   <si>
     <t>Defeito não Crítico</t>
@@ -170,6 +167,28 @@
   <si>
     <t>UC003</t>
   </si>
+  <si>
+    <t>Enviar parâmetro com mais de 30 caracteres.</t>
+  </si>
+  <si>
+    <t>Enviar parâmetro com mais de 25 caracteres.</t>
+  </si>
+  <si>
+    <t>Não enviar parâmetro e acionar a opção "Salvar e Continuar"</t>
+  </si>
+  <si>
+    <t>O sistema não deve permitir inserir quantidade superior a 30 caracteres.</t>
+  </si>
+  <si>
+    <t>O sistema não deve permitir inserir quantidade superior a 25 caracteres.</t>
+  </si>
+  <si>
+    <t>UC003
+FA1</t>
+  </si>
+  <si>
+    <t>Campo na cor vermelha sinalizando alerta, com mensagem "Campo obrigatório".</t>
+  </si>
 </sst>
 </file>
 
@@ -179,7 +198,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-416]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +315,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Perpetua"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -372,7 +399,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -397,6 +424,18 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -421,17 +460,8 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -554,17 +584,171 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9900"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9900"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF007A37"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -654,6 +838,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -683,170 +868,15 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF9900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF9900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF007A37"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF008000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -974,15 +1004,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8FB9DA0-02F2-4704-9AF9-6D43DDA02292}" name="Projeto142" displayName="Projeto142" ref="B9:G19" totalsRowCount="1" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12">
-  <autoFilter ref="B9:G18" xr:uid="{607A569F-09D7-41AE-BDA2-D5C27BE6AD91}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8FB9DA0-02F2-4704-9AF9-6D43DDA02292}" name="Projeto142" displayName="Projeto142" ref="B9:G18" totalsRowCount="1" headerRowDxfId="35" dataDxfId="34" totalsRowDxfId="33">
+  <autoFilter ref="B9:G17" xr:uid="{607A569F-09D7-41AE-BDA2-D5C27BE6AD91}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{19E8A7C0-B80D-4A4C-B6E8-9A6251F90763}" name="Status de Execução" dataDxfId="11" totalsRowDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{D3634518-74AB-4431-915E-B1FCA9D88008}" name="Nome do Cenário" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0920AAF4-6B11-4C16-A8BA-65584B0DB2EE}" name="Parâmetros de Entrada" totalsRowFunction="count" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{AE5D577F-ED45-46EE-828D-BFAD06EA61D0}" name="Resultado Esperado" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{6A3C124B-18F4-45BC-B49B-CA38C18C07CF}" name="Rastreabilidade" totalsRowFunction="count" dataDxfId="6" totalsRowDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{11C48E44-7D0A-4CC4-9C5A-9658FB54CF78}" name="Prioridade" dataDxfId="7" totalsRowDxfId="0" dataCellStyle="Data"/>
+    <tableColumn id="2" xr3:uid="{19E8A7C0-B80D-4A4C-B6E8-9A6251F90763}" name="Status de Execução" dataDxfId="31" totalsRowDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{D3634518-74AB-4431-915E-B1FCA9D88008}" name="Nome do Cenário" totalsRowFunction="count" dataDxfId="30" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0920AAF4-6B11-4C16-A8BA-65584B0DB2EE}" name="Parâmetros de Entrada" totalsRowFunction="count" dataDxfId="32" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{AE5D577F-ED45-46EE-828D-BFAD06EA61D0}" name="Resultado Esperado" totalsRowFunction="count" dataDxfId="29" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{6A3C124B-18F4-45BC-B49B-CA38C18C07CF}" name="Rastreabilidade" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{11C48E44-7D0A-4CC4-9C5A-9658FB54CF78}" name="Prioridade" dataDxfId="27" totalsRowDxfId="0" dataCellStyle="Data"/>
   </tableColumns>
   <tableStyleInfo name="Lista de tarefas pendentes para projetos" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1341,10 +1371,10 @@
     <tabColor theme="5" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1354,7 +1384,7 @@
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="50.85546875" customWidth="1"/>
     <col min="5" max="5" width="55.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -1362,283 +1392,298 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="20"/>
+    </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="12">
         <v>43575</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="16"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="G10" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="E11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="G11" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="18" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="E13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="G13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="E14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="18" t="s">
+      <c r="D15" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="E15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="G15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="18" t="s">
+      <c r="D16" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="E16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="G16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="18" t="s">
-        <v>31</v>
+      <c r="D17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
+        <f>SUBTOTAL(103,Projeto142[Nome do Cenário])</f>
+        <v>8</v>
+      </c>
+      <c r="D18" s="2">
+        <f>SUBTOTAL(103,Projeto142[Parâmetros de Entrada])</f>
+        <v>8</v>
+      </c>
+      <c r="E18" s="2">
+        <f>SUBTOTAL(103,Projeto142[Resultado Esperado])</f>
+        <v>8</v>
+      </c>
+      <c r="F18" s="11">
+        <f>SUBTOTAL(103,Projeto142[Rastreabilidade])</f>
+        <v>8</v>
+      </c>
+      <c r="G18" s="2"/>
       <c r="M18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2">
-        <f>SUBTOTAL(103,Projeto142[Nome do Cenário])</f>
-        <v>9</v>
-      </c>
-      <c r="D19" s="2">
-        <f>SUBTOTAL(103,Projeto142[Parâmetros de Entrada])</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <f>SUBTOTAL(103,Projeto142[Resultado Esperado])</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="19">
-        <f>SUBTOTAL(103,Projeto142[Rastreabilidade])</f>
-        <v>9</v>
-      </c>
-      <c r="G19" s="2"/>
       <c r="M19" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M20" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1654,77 +1699,74 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10:B18">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
-      <formula>$M$16</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+  <conditionalFormatting sqref="B10:B17">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+      <formula>$M$15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>$M$13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
-      <formula>$M$15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>$M$14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
-      <formula>$M$14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
       <formula>$M$13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
       <formula>$M$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
       <formula>$M$12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:G18">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
-      <formula>$M$20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+  <conditionalFormatting sqref="G10:G17">
+    <cfRule type="cellIs" dxfId="18" priority="38" operator="equal">
       <formula>$M$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="39" operator="equal">
       <formula>$M$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
-      <formula>$M$20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="40" operator="equal">
+      <formula>$M$17</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="41" operator="equal">
       <formula>$M$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="42" operator="equal">
       <formula>$M$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="43" operator="equal">
+      <formula>$M$17</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
-      <formula>$M$19</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="45" operator="equal">
       <formula>$M$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
-      <formula>$M$19</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="46" operator="equal">
+      <formula>$M$17</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="47" operator="equal">
+      <formula>$M$18</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
-      <formula>$M$19</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="49" operator="equal">
       <formula>$M$18</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="50" operator="equal">
+      <formula>$M$17</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G18" xr:uid="{DAE4B939-D0AF-495D-959D-05218255D502}">
-      <formula1>$M$18:$M$20</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Crie uma lista de Tarefas pendentes para projetos nesta pasta de trabalho. Insira os detalhes do projeto para o Projeto 1 nesta planilha e os detalhes do Projeto 2 e Projeto 3 nas planilhas subsequentes" sqref="A1" xr:uid="{EB0C4FAE-66DF-4B49-A4A5-10977260BA2B}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="O título da planilha está nesta célula. Insira o Nome da pessoa a concluir esse projeto na célula D3 e a Data limite na célula D4. Insira os Detalhes do projeto na tabela começando na célula B7" sqref="B1" xr:uid="{ED39A8B6-149B-445E-9C2E-26DA52689BBF}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o nome da pessoa que deve concluir a tarefa na célula à direita" sqref="B3:C3" xr:uid="{0AE4B056-40B5-4381-9C9E-AD6FFDD00A74}"/>
@@ -1735,8 +1777,11 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a Fase do projeto na coluna sob este título" sqref="B9" xr:uid="{4DD9014E-28D4-48FC-ACBF-63A89FACE108}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a Data de conclusão na coluna sob este título" sqref="C9 F9:G9" xr:uid="{CFF72DFC-8EB4-4B99-A31D-89012F1D9FCF}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira Anotações na coluna sob este título" sqref="D9:E9" xr:uid="{795F264E-6BAF-402A-B653-E1795AF21089}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10:B18" xr:uid="{7369F04F-129E-4961-830F-17DB82780EDC}">
-      <formula1>$M$12:$M$16</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G17" xr:uid="{DAE4B939-D0AF-495D-959D-05218255D502}">
+      <formula1>$M$17:$M$19</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10:B17" xr:uid="{7369F04F-129E-4961-830F-17DB82780EDC}">
+      <formula1>$M$12:$M$15</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
